--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>恒生前海港股通高股息低波动指数</t>
   </si>
   <si>
+    <t>0.33</t>
+  </si>
+  <si>
     <t>94.25</t>
   </si>
   <si>
     <t>2.23</t>
+  </si>
+  <si>
+    <t>0.0074</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005702</t>
-  </si>
-  <si>
-    <t>恒生前海港股通高股息低波动指数</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>94.25</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>0.0074</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.3</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.75</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.34</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.3</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.75</v>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.34</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.3</v>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1471,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.75</v>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1509,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -611,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.81</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9181</t>
+          <t>0.9025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -649,26 +687,140 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>17.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.54</t>
+          <t>82.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8318</t>
+          <t>0.7818</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -743,26 +895,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8780</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -781,22 +933,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8516</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -819,26 +971,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5420</t>
+          <t>0.6883</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -857,26 +1009,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1271,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1159,26 +1311,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>15.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>86.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9011</t>
+          <t>0.8780</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1197,22 +1349,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>73.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7817</t>
+          <t>0.8516</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1235,26 +1387,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.53</t>
+          <t>76.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6883</t>
+          <t>0.5420</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1273,26 +1425,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.53</t>
+          <t>76.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1367,26 +1519,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>29.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>82.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9025</t>
+          <t>0.9181</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1405,140 +1557,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.53</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.11</t>
+          <t>62.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7818</t>
+          <t>0.8318</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011468</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6526</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011469</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1552,128 +1590,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>517900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行AH价格优选ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -821,214 +1198,6 @@
       </c>
       <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008515</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海基本面优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9011</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011152</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海兴海回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7817</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011468</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6883</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011469</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1103,26 +1272,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9302</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1141,26 +1310,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.49</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7971</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1179,26 +1348,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5848</t>
+          <t>0.6883</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1217,26 +1386,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1440,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1316,21 +1485,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>90.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8780</t>
+          <t>0.9302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1349,26 +1518,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>20.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8516</t>
+          <t>0.7971</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1387,22 +1556,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5420</t>
+          <t>0.5848</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1430,17 +1599,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1453,6 +1622,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01988-民生银行.xlsx
+++ b/数据整理/stocks/港股/01988-民生银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>88.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8073</t>
+          <t>0.9568</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>16.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.99</t>
+          <t>87.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7524</t>
+          <t>0.8930</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5545</t>
+          <t>0.6565</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>0.0407</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -894,26 +911,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.90</t>
+          <t>98.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +977,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>517900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行AH价格优选ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1198,214 +1575,6 @@
       </c>
       <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008515</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海基本面优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9011</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011152</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海兴海回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7817</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011468</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6883</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011469</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1480,26 +1649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9302</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1518,26 +1687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.49</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7971</t>
+          <t>0.7817</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1556,26 +1725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5848</t>
+          <t>0.6883</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1594,26 +1763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1693,21 +1862,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>90.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8780</t>
+          <t>0.9302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1726,26 +1895,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>20.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8516</t>
+          <t>0.7971</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1764,22 +1933,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5420</t>
+          <t>0.5848</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1807,17 +1976,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1830,6 +1999,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
